--- a/.doc/工作进度.xlsx
+++ b/.doc/工作进度.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="app接口" sheetId="1" r:id="rId1"/>
@@ -13,412 +13,642 @@
     <sheet name="Android" sheetId="4" r:id="rId4"/>
     <sheet name="电商" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
+  <si>
+    <t>app接口</t>
+  </si>
   <si>
     <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>子模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+  </si>
+  <si>
+    <t>进度详情</t>
   </si>
   <si>
     <t>负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信登陆未完成</t>
+  </si>
+  <si>
+    <t>王海成</t>
   </si>
   <si>
     <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有和IM进行关联</t>
   </si>
   <si>
     <t>找回密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
   </si>
   <si>
     <t>积分好礼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>教练申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>话题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>俱乐部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发布动态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>日志-水肺潜水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商场</t>
   </si>
   <si>
     <t>商品列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>商品详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>购物车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>船宿预约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨安生</t>
   </si>
   <si>
     <t>课程购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的</t>
   </si>
   <si>
     <t>个人资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信绑定</t>
   </si>
   <si>
     <t>我的积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我的订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口的调试待做</t>
   </si>
   <si>
     <t>我的钱包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一部分设计到支付后的待做</t>
   </si>
   <si>
     <t>我的关注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我的动态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我的返佣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地址管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>消息-私信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及到聊天的待做</t>
   </si>
   <si>
     <t>设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信登陆未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有和IM进行关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王海成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>后台管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计分析</t>
   </si>
   <si>
     <t>用户分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>教练管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈衍兵</t>
   </si>
   <si>
     <t>供应商管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>商品管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>商品审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>商品设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>商品规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>分类管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>分佣管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后管理</t>
   </si>
   <si>
     <t>退款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>退货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>退款退货原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题管理</t>
+  </si>
+  <si>
+    <t>话题类别</t>
+  </si>
+  <si>
+    <t>话题内容</t>
+  </si>
+  <si>
+    <t>图片管理</t>
   </si>
   <si>
     <t>启动页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>引导页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>首页轮播图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>商场轮播图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
   </si>
   <si>
     <t>管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>权限组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>操作日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分管理</t>
   </si>
   <si>
     <t>积分明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>规则说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>积分增减</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>评价管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>买家评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>店铺评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IOS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android</t>
   </si>
   <si>
     <t>电商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>酒店预订</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂缓</t>
   </si>
   <si>
     <t>支付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈衍兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨安生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话题类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话题内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话题管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>其他模板的修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂缓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -426,13 +656,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -445,24 +917,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -511,7 +1021,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -544,26 +1054,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -596,23 +1089,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -754,24 +1230,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="27.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
@@ -779,791 +1250,838 @@
     <col min="5" max="5" width="20" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="30.75" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>0.9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>0.9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" customHeight="1" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>0.9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+    <row r="20" customHeight="1" spans="1:5">
+      <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:5">
+      <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+    <row r="26" customHeight="1" spans="1:5">
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="E26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:5">
+      <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:4">
+      <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" customHeight="1" spans="1:4">
       <c r="A29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" customHeight="1" spans="1:4">
       <c r="A30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customHeight="1" spans="1:4">
       <c r="A31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customHeight="1" spans="1:4">
       <c r="A32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customHeight="1" spans="1:4">
       <c r="A33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customHeight="1" spans="1:4">
       <c r="A34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customHeight="1" spans="1:4">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" customHeight="1" spans="1:4">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" customHeight="1" spans="1:4">
       <c r="A37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" customHeight="1" spans="1:4">
       <c r="A39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" customHeight="1" spans="1:4">
       <c r="A40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" customHeight="1" spans="1:4">
       <c r="A41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" customHeight="1" spans="1:4">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" customHeight="1" spans="2:2">
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" customHeight="1" spans="2:2">
       <c r="B44"/>
     </row>
-    <row r="45" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" customHeight="1" spans="2:2">
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" customHeight="1" spans="2:2">
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" customHeight="1" spans="2:2">
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" customHeight="1" spans="2:2">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" customHeight="1" spans="2:2">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" ht="104.1" customHeight="1" spans="2:2">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" ht="90" customHeight="1" spans="2:2">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" customHeight="1" spans="2:2">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" customHeight="1" spans="2:2">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" customHeight="1" spans="2:2">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" customHeight="1" spans="2:2">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" customHeight="1" spans="2:2">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" customHeight="1" spans="2:2">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" customHeight="1" spans="2:2">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" customHeight="1" spans="2:2">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" customHeight="1" spans="2:2">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" customHeight="1" spans="2:2">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" customHeight="1" spans="2:2">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" customHeight="1" spans="2:2">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" customHeight="1" spans="2:2">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" customHeight="1" spans="2:2">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" customHeight="1" spans="2:2">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" customHeight="1" spans="2:2">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" customHeight="1" spans="2:2">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" customHeight="1" spans="2:2">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" customHeight="1" spans="2:2">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" customHeight="1" spans="2:2">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" customHeight="1" spans="2:2">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" customHeight="1" spans="2:2">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" customHeight="1" spans="2:2">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" customHeight="1" spans="2:2">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" customHeight="1" spans="2:2">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" customHeight="1" spans="2:2">
       <c r="B77"/>
     </row>
-    <row r="78" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" customHeight="1" spans="2:2">
       <c r="B78"/>
     </row>
-    <row r="79" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" customHeight="1" spans="2:2">
       <c r="B79"/>
     </row>
-    <row r="80" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" customHeight="1" spans="2:2">
       <c r="B80"/>
     </row>
-    <row r="81" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" customHeight="1" spans="2:2">
       <c r="B81"/>
     </row>
-    <row r="82" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" customHeight="1" spans="2:2">
       <c r="B82"/>
     </row>
-    <row r="83" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" customHeight="1" spans="2:2">
       <c r="B83"/>
     </row>
-    <row r="84" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" customHeight="1" spans="2:2">
       <c r="B84"/>
     </row>
-    <row r="85" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" customHeight="1" spans="2:2">
       <c r="B85"/>
     </row>
-    <row r="86" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" customHeight="1" spans="2:2">
       <c r="B86"/>
     </row>
-    <row r="87" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" customHeight="1" spans="2:2">
       <c r="B87"/>
     </row>
-    <row r="88" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" customHeight="1" spans="2:2">
       <c r="B88"/>
     </row>
-    <row r="89" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" customHeight="1" spans="2:2">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" customHeight="1" spans="2:2">
       <c r="B90"/>
     </row>
-    <row r="91" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" customHeight="1" spans="2:2">
       <c r="B91"/>
     </row>
-    <row r="92" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" customHeight="1" spans="2:2">
       <c r="B92"/>
     </row>
-    <row r="93" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" customHeight="1" spans="2:2">
       <c r="B93"/>
     </row>
-    <row r="94" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" customHeight="1" spans="2:2">
       <c r="B94"/>
     </row>
-    <row r="95" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" customHeight="1" spans="2:2">
       <c r="B95"/>
     </row>
-    <row r="96" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" customHeight="1" spans="2:2">
       <c r="B96"/>
     </row>
-    <row r="97" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" customHeight="1" spans="2:2">
       <c r="B97"/>
     </row>
-    <row r="98" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" customHeight="1" spans="2:2">
       <c r="B98"/>
     </row>
-    <row r="99" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" customHeight="1" spans="2:2">
       <c r="B99"/>
     </row>
-    <row r="100" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" customHeight="1" spans="2:2">
       <c r="B100"/>
     </row>
-    <row r="101" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" customHeight="1" spans="2:2">
       <c r="B101"/>
     </row>
-    <row r="102" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" customHeight="1" spans="2:2">
       <c r="B102"/>
     </row>
-    <row r="103" spans="2:2" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" ht="75.95" customHeight="1" spans="2:2">
       <c r="B103"/>
     </row>
-    <row r="104" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" customHeight="1" spans="2:2">
       <c r="B104"/>
     </row>
-    <row r="105" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" customHeight="1" spans="2:2">
       <c r="B105"/>
     </row>
-    <row r="106" spans="2:2" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" ht="48" customHeight="1" spans="2:2">
       <c r="B106"/>
     </row>
-    <row r="107" spans="2:2" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" ht="48" customHeight="1" spans="2:2">
       <c r="B107"/>
     </row>
-    <row r="108" spans="2:2" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" ht="48" customHeight="1" spans="2:2">
       <c r="B108"/>
     </row>
-    <row r="109" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" customHeight="1" spans="2:2">
       <c r="B109"/>
     </row>
-    <row r="110" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" customHeight="1" spans="2:2">
       <c r="B110"/>
     </row>
-    <row r="111" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" customHeight="1" spans="2:2">
       <c r="B111"/>
     </row>
-    <row r="112" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" customHeight="1" spans="2:2">
       <c r="B112"/>
     </row>
-    <row r="113" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" customHeight="1" spans="2:2">
       <c r="B113"/>
     </row>
-    <row r="114" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" customHeight="1" spans="2:2">
       <c r="B114"/>
     </row>
-    <row r="115" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" customHeight="1" spans="2:2">
       <c r="B115"/>
     </row>
-    <row r="116" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" customHeight="1" spans="2:2">
       <c r="B116"/>
     </row>
-    <row r="117" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" customHeight="1" spans="2:2">
       <c r="B117"/>
     </row>
-    <row r="118" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" customHeight="1" spans="2:2">
       <c r="B118"/>
     </row>
-    <row r="119" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" customHeight="1" spans="2:2">
       <c r="B119"/>
     </row>
-    <row r="120" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" customHeight="1" spans="2:2">
       <c r="B120"/>
     </row>
-    <row r="121" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" customHeight="1" spans="2:2">
       <c r="B121"/>
     </row>
-    <row r="122" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" customHeight="1" spans="2:2">
       <c r="B122"/>
     </row>
-    <row r="123" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" ht="27.75" customHeight="1" spans="2:2">
       <c r="B123"/>
     </row>
-    <row r="124" spans="2:2" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" ht="27.75" hidden="1" customHeight="1" spans="2:2">
       <c r="B124"/>
     </row>
-    <row r="125" spans="2:2" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" ht="27.75" hidden="1" customHeight="1" spans="2:2">
       <c r="B125"/>
     </row>
-    <row r="126" spans="2:2" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" ht="27.75" hidden="1" customHeight="1" spans="2:2">
       <c r="B126"/>
     </row>
-    <row r="127" spans="2:2" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" ht="27.75" hidden="1" customHeight="1" spans="2:2">
       <c r="B127"/>
     </row>
-    <row r="128" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" customHeight="1" spans="2:2">
       <c r="B128"/>
     </row>
-    <row r="129" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" customHeight="1" spans="2:2">
       <c r="B129"/>
     </row>
-    <row r="130" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" ht="27.75" customHeight="1" spans="2:2">
       <c r="B130"/>
     </row>
-    <row r="131" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" customHeight="1" spans="2:2">
       <c r="B131"/>
     </row>
-    <row r="132" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" customHeight="1" spans="2:2">
       <c r="B132"/>
     </row>
-    <row r="133" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" customHeight="1" spans="2:2">
       <c r="B133"/>
     </row>
-    <row r="134" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" customHeight="1" spans="2:2">
       <c r="B134"/>
     </row>
-    <row r="135" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" customHeight="1" spans="2:2">
       <c r="B135"/>
     </row>
-    <row r="136" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" customHeight="1" spans="2:2">
       <c r="B136"/>
     </row>
-    <row r="137" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" customHeight="1" spans="2:2">
       <c r="B137"/>
     </row>
-    <row r="138" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" customHeight="1" spans="2:2">
       <c r="B138"/>
     </row>
-    <row r="139" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" customHeight="1" spans="2:2">
       <c r="B139"/>
     </row>
-    <row r="140" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" customHeight="1" spans="2:2">
       <c r="B140"/>
     </row>
-    <row r="141" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" ht="27.75" customHeight="1" spans="2:2">
       <c r="B141"/>
     </row>
-    <row r="142" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" ht="27.75" customHeight="1" spans="2:2">
       <c r="B142"/>
     </row>
-    <row r="143" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" ht="27.75" customHeight="1" spans="2:2">
       <c r="B143"/>
     </row>
-    <row r="144" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" ht="27.75" customHeight="1" spans="2:2">
       <c r="B144"/>
     </row>
-    <row r="145" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" ht="27.75" customHeight="1" spans="2:2">
       <c r="B145"/>
     </row>
-    <row r="146" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" ht="27.75" customHeight="1" spans="2:2">
       <c r="B146"/>
     </row>
-    <row r="147" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" ht="27.75" customHeight="1" spans="2:2">
       <c r="B147"/>
     </row>
-    <row r="148" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" ht="27.75" customHeight="1" spans="2:2">
       <c r="B148"/>
     </row>
-    <row r="149" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" ht="27.75" customHeight="1" spans="2:2">
       <c r="B149"/>
     </row>
-    <row r="150" spans="2:2" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" ht="53.1" customHeight="1" spans="2:2">
       <c r="B150"/>
     </row>
-    <row r="151" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" customHeight="1" spans="2:2">
       <c r="B151"/>
     </row>
-    <row r="152" spans="2:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" ht="42.95" customHeight="1" spans="2:2">
       <c r="B152"/>
     </row>
-    <row r="153" spans="2:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" ht="42.95" customHeight="1" spans="2:2">
       <c r="B153"/>
     </row>
-    <row r="154" spans="2:2" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" ht="62.1" customHeight="1" spans="2:2">
       <c r="B154"/>
     </row>
-    <row r="155" spans="2:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" ht="35.1" customHeight="1" spans="2:2">
       <c r="B155"/>
     </row>
-    <row r="156" spans="2:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" ht="39.95" customHeight="1" spans="2:2">
       <c r="B156"/>
     </row>
-    <row r="157" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" customHeight="1" spans="2:2">
       <c r="B157"/>
     </row>
-    <row r="158" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" customHeight="1" spans="2:2">
       <c r="B158"/>
     </row>
-    <row r="159" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" customHeight="1" spans="2:2">
       <c r="B159"/>
     </row>
-    <row r="160" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" customHeight="1" spans="2:2">
       <c r="B160"/>
     </row>
-    <row r="161" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" customHeight="1" spans="2:2">
       <c r="B161"/>
     </row>
-    <row r="162" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" customHeight="1" spans="2:2">
       <c r="B162"/>
     </row>
-    <row r="163" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" customHeight="1" spans="2:2">
       <c r="B163"/>
     </row>
-    <row r="164" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" customHeight="1" spans="2:2">
       <c r="B164"/>
     </row>
-    <row r="165" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" customHeight="1" spans="2:2">
       <c r="B165"/>
     </row>
-    <row r="166" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" customHeight="1" spans="2:2">
       <c r="B166"/>
     </row>
-    <row r="167" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" customHeight="1" spans="2:2">
       <c r="B167"/>
     </row>
-    <row r="168" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" customHeight="1" spans="2:2">
       <c r="B168"/>
     </row>
-    <row r="169" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" customHeight="1" spans="2:2">
       <c r="B169"/>
     </row>
-    <row r="170" spans="2:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" ht="50.1" customHeight="1" spans="2:2">
       <c r="B170"/>
     </row>
-    <row r="171" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" customHeight="1" spans="2:2">
       <c r="B171"/>
     </row>
-    <row r="172" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" customHeight="1" spans="2:2">
       <c r="B172"/>
     </row>
-    <row r="173" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" customHeight="1" spans="2:2">
       <c r="B173"/>
     </row>
-    <row r="174" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" customHeight="1" spans="2:2">
       <c r="B174"/>
     </row>
-    <row r="175" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" customHeight="1" spans="2:2">
       <c r="B175"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A28"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
@@ -1571,34 +2089,33 @@
     <col min="5" max="5" width="20" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="30.75" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" ht="27.95" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="27.95" customHeight="1" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>46</v>
@@ -1608,39 +2125,39 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="27.95" customHeight="1" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" ht="27.95" customHeight="1" spans="1:5">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" ht="27.95" customHeight="1" spans="1:5">
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>50</v>
       </c>
@@ -1649,86 +2166,82 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>52</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="27.95" customHeight="1" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+    </row>
+    <row r="9" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+    </row>
+    <row r="10" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>56</v>
+    </row>
+    <row r="11" ht="27.95" customHeight="1" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>61</v>
+    </row>
+    <row r="13" ht="27.95" customHeight="1" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>58</v>
@@ -1737,12 +2250,12 @@
         <v>0</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>59</v>
       </c>
@@ -1750,10 +2263,9 @@
         <v>0</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+    </row>
+    <row r="15" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>60</v>
       </c>
@@ -1761,698 +2273,689 @@
         <v>0</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>87</v>
+    </row>
+    <row r="16" ht="27.95" customHeight="1" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="E16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>66</v>
+    </row>
+    <row r="18" ht="27.95" customHeight="1" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+    </row>
+    <row r="20" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+    </row>
+    <row r="21" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    </row>
+    <row r="22" ht="27.95" customHeight="1" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+    </row>
+    <row r="24" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    </row>
+    <row r="25" ht="27.95" customHeight="1" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="E25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+    </row>
+    <row r="27" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>75</v>
+    </row>
+    <row r="28" ht="27.95" customHeight="1" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="E28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" ht="27.95" customHeight="1" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" ht="27.95" customHeight="1" spans="1:4">
       <c r="A31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" ht="27.95" customHeight="1" spans="1:4">
       <c r="A32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" ht="27.95" customHeight="1" spans="1:4">
       <c r="A33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" ht="27.95" customHeight="1" spans="1:4">
       <c r="A34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" ht="27.95" customHeight="1" spans="1:4">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" ht="27.95" customHeight="1" spans="1:4">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" ht="27.95" customHeight="1" spans="1:4">
       <c r="A37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" ht="27.95" customHeight="1" spans="1:4">
       <c r="A38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" ht="27.95" customHeight="1" spans="1:4">
       <c r="A39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" ht="27.95" customHeight="1" spans="1:4">
       <c r="A40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" ht="27.95" customHeight="1" spans="1:4">
       <c r="A41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" ht="27.95" customHeight="1" spans="1:4">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" ht="27.95" customHeight="1" spans="1:4">
       <c r="A43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" ht="27.95" customHeight="1" spans="1:4">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" ht="27.95" customHeight="1" spans="2:2">
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" ht="27.95" customHeight="1" spans="2:2">
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" ht="27.95" customHeight="1" spans="2:2">
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" ht="27.95" customHeight="1" spans="2:2">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" ht="27.95" customHeight="1" spans="2:2">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" ht="27.95" customHeight="1" spans="2:2">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" ht="27.95" customHeight="1" spans="2:2">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" ht="104.1" customHeight="1" spans="2:2">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" ht="90" customHeight="1" spans="2:2">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" ht="27.95" customHeight="1" spans="2:2">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" ht="27.95" customHeight="1" spans="2:2">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" ht="27.95" customHeight="1" spans="2:2">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" ht="27.95" customHeight="1" spans="2:2">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" ht="27.95" customHeight="1" spans="2:2">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" ht="27.95" customHeight="1" spans="2:2">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" ht="27.95" customHeight="1" spans="2:2">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" ht="27.95" customHeight="1" spans="2:2">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" ht="27.95" customHeight="1" spans="2:2">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" ht="27.95" customHeight="1" spans="2:2">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" ht="27.95" customHeight="1" spans="2:2">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" ht="27.95" customHeight="1" spans="2:2">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" ht="27.95" customHeight="1" spans="2:2">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" ht="27.95" customHeight="1" spans="2:2">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" ht="27.95" customHeight="1" spans="2:2">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" ht="27.95" customHeight="1" spans="2:2">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" ht="27.95" customHeight="1" spans="2:2">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" ht="27.95" customHeight="1" spans="2:2">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" ht="27.95" customHeight="1" spans="2:2">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" ht="27.95" customHeight="1" spans="2:2">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" ht="27.95" customHeight="1" spans="2:2">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" ht="27.95" customHeight="1" spans="2:2">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" ht="27.95" customHeight="1" spans="2:2">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" ht="27.95" customHeight="1" spans="2:2">
       <c r="B77"/>
     </row>
-    <row r="78" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" ht="27.95" customHeight="1" spans="2:2">
       <c r="B78"/>
     </row>
-    <row r="79" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" ht="27.95" customHeight="1" spans="2:2">
       <c r="B79"/>
     </row>
-    <row r="80" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" ht="27.95" customHeight="1" spans="2:2">
       <c r="B80"/>
     </row>
-    <row r="81" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" ht="27.95" customHeight="1" spans="2:2">
       <c r="B81"/>
     </row>
-    <row r="82" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" ht="27.95" customHeight="1" spans="2:2">
       <c r="B82"/>
     </row>
-    <row r="83" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" ht="27.95" customHeight="1" spans="2:2">
       <c r="B83"/>
     </row>
-    <row r="84" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" ht="27.95" customHeight="1" spans="2:2">
       <c r="B84"/>
     </row>
-    <row r="85" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" ht="27.95" customHeight="1" spans="2:2">
       <c r="B85"/>
     </row>
-    <row r="86" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" ht="27.95" customHeight="1" spans="2:2">
       <c r="B86"/>
     </row>
-    <row r="87" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" ht="27.95" customHeight="1" spans="2:2">
       <c r="B87"/>
     </row>
-    <row r="88" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" ht="27.95" customHeight="1" spans="2:2">
       <c r="B88"/>
     </row>
-    <row r="89" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" ht="27.95" customHeight="1" spans="2:2">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" ht="27.95" customHeight="1" spans="2:2">
       <c r="B90"/>
     </row>
-    <row r="91" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" ht="27.95" customHeight="1" spans="2:2">
       <c r="B91"/>
     </row>
-    <row r="92" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" ht="27.95" customHeight="1" spans="2:2">
       <c r="B92"/>
     </row>
-    <row r="93" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" ht="27.95" customHeight="1" spans="2:2">
       <c r="B93"/>
     </row>
-    <row r="94" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" ht="27.95" customHeight="1" spans="2:2">
       <c r="B94"/>
     </row>
-    <row r="95" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" ht="27.95" customHeight="1" spans="2:2">
       <c r="B95"/>
     </row>
-    <row r="96" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" ht="27.95" customHeight="1" spans="2:2">
       <c r="B96"/>
     </row>
-    <row r="97" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" ht="27.95" customHeight="1" spans="2:2">
       <c r="B97"/>
     </row>
-    <row r="98" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" ht="27.95" customHeight="1" spans="2:2">
       <c r="B98"/>
     </row>
-    <row r="99" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" ht="27.95" customHeight="1" spans="2:2">
       <c r="B99"/>
     </row>
-    <row r="100" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" ht="27.95" customHeight="1" spans="2:2">
       <c r="B100"/>
     </row>
-    <row r="101" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" ht="27.95" customHeight="1" spans="2:2">
       <c r="B101"/>
     </row>
-    <row r="102" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" ht="27.95" customHeight="1" spans="2:2">
       <c r="B102"/>
     </row>
-    <row r="103" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" ht="27.95" customHeight="1" spans="2:2">
       <c r="B103"/>
     </row>
-    <row r="104" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" ht="27.95" customHeight="1" spans="2:2">
       <c r="B104"/>
     </row>
-    <row r="105" spans="2:2" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" ht="75.95" customHeight="1" spans="2:2">
       <c r="B105"/>
     </row>
-    <row r="106" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" ht="27.95" customHeight="1" spans="2:2">
       <c r="B106"/>
     </row>
-    <row r="107" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" ht="27.95" customHeight="1" spans="2:2">
       <c r="B107"/>
     </row>
-    <row r="108" spans="2:2" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" ht="48" customHeight="1" spans="2:2">
       <c r="B108"/>
     </row>
-    <row r="109" spans="2:2" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" ht="48" customHeight="1" spans="2:2">
       <c r="B109"/>
     </row>
-    <row r="110" spans="2:2" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" ht="48" customHeight="1" spans="2:2">
       <c r="B110"/>
     </row>
-    <row r="111" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" ht="27.95" customHeight="1" spans="2:2">
       <c r="B111"/>
     </row>
-    <row r="112" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" ht="27.95" customHeight="1" spans="2:2">
       <c r="B112"/>
     </row>
-    <row r="113" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" ht="27.95" customHeight="1" spans="2:2">
       <c r="B113"/>
     </row>
-    <row r="114" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" ht="27.95" customHeight="1" spans="2:2">
       <c r="B114"/>
     </row>
-    <row r="115" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" ht="27.95" customHeight="1" spans="2:2">
       <c r="B115"/>
     </row>
-    <row r="116" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" ht="27.95" customHeight="1" spans="2:2">
       <c r="B116"/>
     </row>
-    <row r="117" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" ht="27.95" customHeight="1" spans="2:2">
       <c r="B117"/>
     </row>
-    <row r="118" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" ht="27.95" customHeight="1" spans="2:2">
       <c r="B118"/>
     </row>
-    <row r="119" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" ht="27.95" customHeight="1" spans="2:2">
       <c r="B119"/>
     </row>
-    <row r="120" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" ht="27.95" customHeight="1" spans="2:2">
       <c r="B120"/>
     </row>
-    <row r="121" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" ht="27.95" customHeight="1" spans="2:2">
       <c r="B121"/>
     </row>
-    <row r="122" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" ht="27.95" customHeight="1" spans="2:2">
       <c r="B122"/>
     </row>
-    <row r="123" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" ht="27.95" customHeight="1" spans="2:2">
       <c r="B123"/>
     </row>
-    <row r="124" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" ht="27.95" customHeight="1" spans="2:2">
       <c r="B124"/>
     </row>
-    <row r="125" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" ht="27.75" customHeight="1" spans="2:2">
       <c r="B125"/>
     </row>
-    <row r="126" spans="2:2" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" ht="27.75" hidden="1" customHeight="1" spans="2:2">
       <c r="B126"/>
     </row>
-    <row r="127" spans="2:2" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" ht="27.75" hidden="1" customHeight="1" spans="2:2">
       <c r="B127"/>
     </row>
-    <row r="128" spans="2:2" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" ht="27.75" hidden="1" customHeight="1" spans="2:2">
       <c r="B128"/>
     </row>
-    <row r="129" spans="2:2" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" ht="27.75" hidden="1" customHeight="1" spans="2:2">
       <c r="B129"/>
     </row>
-    <row r="130" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" ht="27.95" customHeight="1" spans="2:2">
       <c r="B130"/>
     </row>
-    <row r="131" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" ht="27.95" customHeight="1" spans="2:2">
       <c r="B131"/>
     </row>
-    <row r="132" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" ht="27.75" customHeight="1" spans="2:2">
       <c r="B132"/>
     </row>
-    <row r="133" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" ht="27.95" customHeight="1" spans="2:2">
       <c r="B133"/>
     </row>
-    <row r="134" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" ht="27.95" customHeight="1" spans="2:2">
       <c r="B134"/>
     </row>
-    <row r="135" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" ht="27.95" customHeight="1" spans="2:2">
       <c r="B135"/>
     </row>
-    <row r="136" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" ht="27.95" customHeight="1" spans="2:2">
       <c r="B136"/>
     </row>
-    <row r="137" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" ht="27.95" customHeight="1" spans="2:2">
       <c r="B137"/>
     </row>
-    <row r="138" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" ht="27.95" customHeight="1" spans="2:2">
       <c r="B138"/>
     </row>
-    <row r="139" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" ht="27.95" customHeight="1" spans="2:2">
       <c r="B139"/>
     </row>
-    <row r="140" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" ht="27.95" customHeight="1" spans="2:2">
       <c r="B140"/>
     </row>
-    <row r="141" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" ht="27.95" customHeight="1" spans="2:2">
       <c r="B141"/>
     </row>
-    <row r="142" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" ht="27.95" customHeight="1" spans="2:2">
       <c r="B142"/>
     </row>
-    <row r="143" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" ht="27.75" customHeight="1" spans="2:2">
       <c r="B143"/>
     </row>
-    <row r="144" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" ht="27.75" customHeight="1" spans="2:2">
       <c r="B144"/>
     </row>
-    <row r="145" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" ht="27.75" customHeight="1" spans="2:2">
       <c r="B145"/>
     </row>
-    <row r="146" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" ht="27.75" customHeight="1" spans="2:2">
       <c r="B146"/>
     </row>
-    <row r="147" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" ht="27.75" customHeight="1" spans="2:2">
       <c r="B147"/>
     </row>
-    <row r="148" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" ht="27.75" customHeight="1" spans="2:2">
       <c r="B148"/>
     </row>
-    <row r="149" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" ht="27.75" customHeight="1" spans="2:2">
       <c r="B149"/>
     </row>
-    <row r="150" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" ht="27.75" customHeight="1" spans="2:2">
       <c r="B150"/>
     </row>
-    <row r="151" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" ht="27.75" customHeight="1" spans="2:2">
       <c r="B151"/>
     </row>
-    <row r="152" spans="2:2" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" ht="53.1" customHeight="1" spans="2:2">
       <c r="B152"/>
     </row>
-    <row r="153" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" ht="27.95" customHeight="1" spans="2:2">
       <c r="B153"/>
     </row>
-    <row r="154" spans="2:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" ht="42.95" customHeight="1" spans="2:2">
       <c r="B154"/>
     </row>
-    <row r="155" spans="2:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" ht="42.95" customHeight="1" spans="2:2">
       <c r="B155"/>
     </row>
-    <row r="156" spans="2:2" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" ht="62.1" customHeight="1" spans="2:2">
       <c r="B156"/>
     </row>
-    <row r="157" spans="2:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" ht="35.1" customHeight="1" spans="2:2">
       <c r="B157"/>
     </row>
-    <row r="158" spans="2:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" ht="39.95" customHeight="1" spans="2:2">
       <c r="B158"/>
     </row>
-    <row r="159" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" ht="27.95" customHeight="1" spans="2:2">
       <c r="B159"/>
     </row>
-    <row r="160" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" ht="27.95" customHeight="1" spans="2:2">
       <c r="B160"/>
     </row>
-    <row r="161" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" ht="27.95" customHeight="1" spans="2:2">
       <c r="B161"/>
     </row>
-    <row r="162" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" ht="27.95" customHeight="1" spans="2:2">
       <c r="B162"/>
     </row>
-    <row r="163" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" ht="27.95" customHeight="1" spans="2:2">
       <c r="B163"/>
     </row>
-    <row r="164" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" ht="27.95" customHeight="1" spans="2:2">
       <c r="B164"/>
     </row>
-    <row r="165" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" ht="27.95" customHeight="1" spans="2:2">
       <c r="B165"/>
     </row>
-    <row r="166" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" ht="27.95" customHeight="1" spans="2:2">
       <c r="B166"/>
     </row>
-    <row r="167" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" ht="27.95" customHeight="1" spans="2:2">
       <c r="B167"/>
     </row>
-    <row r="168" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" ht="27.95" customHeight="1" spans="2:2">
       <c r="B168"/>
     </row>
-    <row r="169" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" ht="27.95" customHeight="1" spans="2:2">
       <c r="B169"/>
     </row>
-    <row r="170" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" ht="27.95" customHeight="1" spans="2:2">
       <c r="B170"/>
     </row>
-    <row r="171" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" ht="27.95" customHeight="1" spans="2:2">
       <c r="B171"/>
     </row>
-    <row r="172" spans="2:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" ht="50.1" customHeight="1" spans="2:2">
       <c r="B172"/>
     </row>
-    <row r="173" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" ht="27.95" customHeight="1" spans="2:2">
       <c r="B173"/>
     </row>
-    <row r="174" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" ht="27.95" customHeight="1" spans="2:2">
       <c r="B174"/>
     </row>
-    <row r="175" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" ht="27.95" customHeight="1" spans="2:2">
       <c r="B175"/>
     </row>
-    <row r="176" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" ht="27.95" customHeight="1" spans="2:2">
       <c r="B176"/>
     </row>
-    <row r="177" spans="2:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" ht="27.95" customHeight="1" spans="2:2">
       <c r="B177"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="E16:E17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E25:E27"/>
     <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E175"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
@@ -2460,411 +2963,412 @@
     <col min="5" max="5" width="20" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="1" ht="30.75" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A21" s="3"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A22" s="3"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A24" s="3"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A25" s="3"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A26" s="3"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" ht="104.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" customFormat="1" ht="75.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" customFormat="1" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" customFormat="1" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" customFormat="1" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" customFormat="1" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="44" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="45" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="46" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="47" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="48" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="49" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="50" customFormat="1" ht="104.1" customHeight="1"/>
+    <row r="51" customFormat="1" ht="90" customHeight="1"/>
+    <row r="52" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="53" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="54" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="55" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="56" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="57" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="58" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="59" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="60" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="61" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="62" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="63" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="64" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="65" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="66" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="67" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="68" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="69" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="70" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="71" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="72" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="73" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="74" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="75" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="76" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="77" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="78" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="79" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="80" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="81" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="82" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="83" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="84" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="85" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="86" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="87" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="88" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="89" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="90" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="91" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="92" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="93" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="94" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="95" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="96" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="97" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="98" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="99" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="100" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="101" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="102" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="103" customFormat="1" ht="75.95" customHeight="1"/>
+    <row r="104" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="105" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="106" customFormat="1" ht="48" customHeight="1"/>
+    <row r="107" customFormat="1" ht="48" customHeight="1"/>
+    <row r="108" customFormat="1" ht="48" customHeight="1"/>
+    <row r="109" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="110" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="111" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="112" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="113" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="114" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="115" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="116" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="117" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="118" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="119" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="120" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="121" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="122" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="123" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="124" customFormat="1" ht="27.75" hidden="1" customHeight="1"/>
+    <row r="125" customFormat="1" ht="27.75" hidden="1" customHeight="1"/>
+    <row r="126" customFormat="1" ht="27.75" hidden="1" customHeight="1"/>
+    <row r="127" customFormat="1" ht="27.75" hidden="1" customHeight="1"/>
+    <row r="128" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="129" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="130" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="131" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="132" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="133" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="134" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="135" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="136" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="137" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="138" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="139" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="140" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="141" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="142" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="143" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="144" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="145" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="146" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="147" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="148" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="149" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="150" customFormat="1" ht="53.1" customHeight="1"/>
+    <row r="151" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="152" customFormat="1" ht="42.95" customHeight="1"/>
+    <row r="153" customFormat="1" ht="42.95" customHeight="1"/>
+    <row r="154" customFormat="1" ht="62.1" customHeight="1"/>
+    <row r="155" customFormat="1" ht="35.1" customHeight="1"/>
+    <row r="156" customFormat="1" ht="39.95" customHeight="1"/>
+    <row r="157" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="158" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="159" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="160" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="161" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="162" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="163" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="164" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="165" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="166" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="167" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="168" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="169" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="170" customFormat="1" ht="50.1" customHeight="1"/>
+    <row r="171" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="172" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="173" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="174" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="175" customFormat="1" ht="27.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E175"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
@@ -2872,419 +3376,420 @@
     <col min="5" max="5" width="20" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="1" ht="30.75" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+    <row r="4" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+    <row r="5" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+    <row r="6" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+    <row r="7" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+    <row r="8" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+    <row r="9" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+    <row r="10" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+    <row r="11" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+    <row r="12" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+    <row r="13" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+    <row r="14" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+    <row r="15" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+    <row r="16" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+    <row r="17" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+    <row r="18" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+    <row r="19" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+    <row r="20" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+    <row r="21" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+    <row r="22" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+    <row r="23" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+    <row r="24" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+    <row r="25" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+    <row r="26" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+    <row r="27" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" ht="104.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" customFormat="1" ht="75.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" customFormat="1" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" customFormat="1" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" customFormat="1" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" customFormat="1" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="44" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="45" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="46" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="47" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="48" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="49" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="50" customFormat="1" ht="104.1" customHeight="1"/>
+    <row r="51" customFormat="1" ht="90" customHeight="1"/>
+    <row r="52" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="53" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="54" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="55" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="56" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="57" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="58" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="59" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="60" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="61" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="62" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="63" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="64" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="65" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="66" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="67" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="68" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="69" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="70" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="71" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="72" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="73" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="74" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="75" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="76" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="77" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="78" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="79" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="80" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="81" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="82" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="83" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="84" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="85" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="86" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="87" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="88" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="89" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="90" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="91" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="92" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="93" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="94" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="95" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="96" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="97" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="98" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="99" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="100" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="101" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="102" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="103" customFormat="1" ht="75.95" customHeight="1"/>
+    <row r="104" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="105" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="106" customFormat="1" ht="48" customHeight="1"/>
+    <row r="107" customFormat="1" ht="48" customHeight="1"/>
+    <row r="108" customFormat="1" ht="48" customHeight="1"/>
+    <row r="109" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="110" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="111" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="112" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="113" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="114" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="115" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="116" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="117" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="118" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="119" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="120" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="121" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="122" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="123" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="124" customFormat="1" ht="27.75" hidden="1" customHeight="1"/>
+    <row r="125" customFormat="1" ht="27.75" hidden="1" customHeight="1"/>
+    <row r="126" customFormat="1" ht="27.75" hidden="1" customHeight="1"/>
+    <row r="127" customFormat="1" ht="27.75" hidden="1" customHeight="1"/>
+    <row r="128" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="129" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="130" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="131" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="132" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="133" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="134" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="135" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="136" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="137" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="138" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="139" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="140" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="141" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="142" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="143" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="144" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="145" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="146" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="147" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="148" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="149" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="150" customFormat="1" ht="53.1" customHeight="1"/>
+    <row r="151" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="152" customFormat="1" ht="42.95" customHeight="1"/>
+    <row r="153" customFormat="1" ht="42.95" customHeight="1"/>
+    <row r="154" customFormat="1" ht="62.1" customHeight="1"/>
+    <row r="155" customFormat="1" ht="35.1" customHeight="1"/>
+    <row r="156" customFormat="1" ht="39.95" customHeight="1"/>
+    <row r="157" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="158" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="159" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="160" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="161" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="162" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="163" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="164" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="165" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="166" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="167" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="168" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="169" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="170" customFormat="1" ht="50.1" customHeight="1"/>
+    <row r="171" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="172" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="173" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="174" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="175" customFormat="1" ht="27.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E175"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
@@ -3292,410 +3797,410 @@
     <col min="5" max="5" width="20" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="1" ht="30.75" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A21" s="3"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A22" s="3"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A24" s="3"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A25" s="3"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A26" s="3"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" ht="104.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" customFormat="1" ht="75.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" customFormat="1" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" customFormat="1" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" customFormat="1" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" customFormat="1" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="44" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="45" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="46" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="47" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="48" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="49" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="50" customFormat="1" ht="104.1" customHeight="1"/>
+    <row r="51" customFormat="1" ht="90" customHeight="1"/>
+    <row r="52" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="53" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="54" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="55" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="56" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="57" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="58" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="59" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="60" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="61" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="62" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="63" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="64" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="65" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="66" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="67" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="68" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="69" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="70" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="71" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="72" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="73" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="74" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="75" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="76" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="77" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="78" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="79" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="80" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="81" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="82" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="83" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="84" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="85" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="86" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="87" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="88" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="89" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="90" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="91" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="92" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="93" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="94" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="95" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="96" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="97" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="98" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="99" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="100" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="101" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="102" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="103" customFormat="1" ht="75.95" customHeight="1"/>
+    <row r="104" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="105" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="106" customFormat="1" ht="48" customHeight="1"/>
+    <row r="107" customFormat="1" ht="48" customHeight="1"/>
+    <row r="108" customFormat="1" ht="48" customHeight="1"/>
+    <row r="109" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="110" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="111" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="112" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="113" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="114" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="115" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="116" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="117" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="118" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="119" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="120" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="121" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="122" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="123" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="124" customFormat="1" ht="27.75" hidden="1" customHeight="1"/>
+    <row r="125" customFormat="1" ht="27.75" hidden="1" customHeight="1"/>
+    <row r="126" customFormat="1" ht="27.75" hidden="1" customHeight="1"/>
+    <row r="127" customFormat="1" ht="27.75" hidden="1" customHeight="1"/>
+    <row r="128" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="129" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="130" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="131" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="132" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="133" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="134" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="135" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="136" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="137" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="138" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="139" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="140" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="141" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="142" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="143" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="144" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="145" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="146" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="147" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="148" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="149" customFormat="1" ht="27.75" customHeight="1"/>
+    <row r="150" customFormat="1" ht="53.1" customHeight="1"/>
+    <row r="151" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="152" customFormat="1" ht="42.95" customHeight="1"/>
+    <row r="153" customFormat="1" ht="42.95" customHeight="1"/>
+    <row r="154" customFormat="1" ht="62.1" customHeight="1"/>
+    <row r="155" customFormat="1" ht="35.1" customHeight="1"/>
+    <row r="156" customFormat="1" ht="39.95" customHeight="1"/>
+    <row r="157" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="158" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="159" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="160" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="161" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="162" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="163" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="164" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="165" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="166" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="167" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="168" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="169" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="170" customFormat="1" ht="50.1" customHeight="1"/>
+    <row r="171" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="172" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="173" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="174" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="175" customFormat="1" ht="27.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/.doc/工作进度.xlsx
+++ b/.doc/工作进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="app接口" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
   <si>
     <t>app接口</t>
   </si>
@@ -62,6 +62,12 @@
     <t>积分好礼</t>
   </si>
   <si>
+    <t>设计到订单的还做不了</t>
+  </si>
+  <si>
+    <t>陈衍冰</t>
+  </si>
+  <si>
     <t>教练申请</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
   </si>
   <si>
     <t>话题类别</t>
+  </si>
+  <si>
+    <t>接口开发完毕剩页面</t>
   </si>
   <si>
     <t>话题内容</t>
@@ -289,10 +298,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -304,75 +313,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,9 +342,83 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,14 +433,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,24 +449,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -463,19 +472,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,13 +490,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,7 +508,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,109 +550,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,13 +586,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,17 +666,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,6 +682,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,17 +734,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -731,26 +749,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,148 +768,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1238,8 +1247,8 @@
   <sheetPr/>
   <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="27.95" customHeight="1" outlineLevelCol="4"/>
@@ -1321,72 +1330,114 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:4">
+      <c r="C6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
+    <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -1401,7 +1452,7 @@
     <row r="14" customHeight="1" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -1416,7 +1467,7 @@
     <row r="15" customHeight="1" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -1431,7 +1482,7 @@
     <row r="16" customHeight="1" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -1440,13 +1491,13 @@
         <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -1455,68 +1506,75 @@
         <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2">
         <v>0.9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:4">
+    <row r="19" customHeight="1" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" customHeight="1" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2">
         <v>0.99</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C21" s="2">
         <v>0.6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -1525,65 +1583,86 @@
         <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" customHeight="1" spans="1:5">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C27" s="2">
         <v>0.9</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2077,8 +2156,8 @@
   <sheetPr/>
   <dimension ref="A1:E177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -2091,7 +2170,7 @@
   <sheetData>
     <row r="1" ht="30.75" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2115,51 +2194,51 @@
     </row>
     <row r="3" ht="27.95" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" ht="27.95" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="27.95" customHeight="1" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" ht="27.95" customHeight="1" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -2171,10 +2250,10 @@
     </row>
     <row r="7" ht="27.95" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -2187,7 +2266,7 @@
     <row r="8" ht="27.95" customHeight="1" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -2197,7 +2276,7 @@
     <row r="9" ht="27.95" customHeight="1" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -2207,7 +2286,7 @@
     <row r="10" ht="27.95" customHeight="1" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -2216,10 +2295,10 @@
     </row>
     <row r="11" ht="27.95" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -2232,7 +2311,7 @@
     <row r="12" ht="27.95" customHeight="1" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -2241,23 +2320,23 @@
     </row>
     <row r="13" ht="27.95" customHeight="1" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="27.95" customHeight="1" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -2267,7 +2346,7 @@
     <row r="15" ht="27.95" customHeight="1" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -2276,48 +2355,52 @@
     </row>
     <row r="16" ht="27.95" customHeight="1" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="27.95" customHeight="1" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="18" ht="27.95" customHeight="1" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="27.95" customHeight="1" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -2327,7 +2410,7 @@
     <row r="20" ht="27.95" customHeight="1" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -2337,7 +2420,7 @@
     <row r="21" ht="27.95" customHeight="1" spans="1:4">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -2346,10 +2429,10 @@
     </row>
     <row r="22" ht="27.95" customHeight="1" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -2362,7 +2445,7 @@
     <row r="23" ht="27.95" customHeight="1" spans="1:4">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -2372,7 +2455,7 @@
     <row r="24" ht="27.95" customHeight="1" spans="1:4">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -2381,23 +2464,23 @@
     </row>
     <row r="25" ht="27.95" customHeight="1" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" ht="27.95" customHeight="1" spans="1:4">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -2407,7 +2490,7 @@
     <row r="27" ht="27.95" customHeight="1" spans="1:4">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -2416,23 +2499,23 @@
     </row>
     <row r="28" ht="27.95" customHeight="1" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" ht="27.95" customHeight="1" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -2441,7 +2524,7 @@
     </row>
     <row r="30" ht="27.95" customHeight="1" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -2965,7 +3048,7 @@
   <sheetData>
     <row r="1" customFormat="1" ht="30.75" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3378,7 +3461,7 @@
   <sheetData>
     <row r="1" customFormat="1" ht="30.75" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3799,7 +3882,7 @@
   <sheetData>
     <row r="1" customFormat="1" ht="30.75" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3807,30 +3890,30 @@
     </row>
     <row r="2" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>

--- a/.doc/工作进度.xlsx
+++ b/.doc/工作进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="app接口" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>app接口</t>
   </si>
@@ -62,90 +62,96 @@
     <t>积分好礼</t>
   </si>
   <si>
+    <t>设计到订单没做</t>
+  </si>
+  <si>
+    <t>陈衍冰</t>
+  </si>
+  <si>
+    <t>教练申请</t>
+  </si>
+  <si>
+    <t>话题</t>
+  </si>
+  <si>
+    <t>搜索</t>
+  </si>
+  <si>
+    <t>俱乐部</t>
+  </si>
+  <si>
+    <t>店铺</t>
+  </si>
+  <si>
+    <t>发布</t>
+  </si>
+  <si>
+    <t>发布动态</t>
+  </si>
+  <si>
+    <t>日志-水肺潜水</t>
+  </si>
+  <si>
+    <t>商场</t>
+  </si>
+  <si>
+    <t>商品列表</t>
+  </si>
+  <si>
+    <t>商品详情</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>船宿预约</t>
+  </si>
+  <si>
+    <t>杨安生</t>
+  </si>
+  <si>
+    <t>课程购买</t>
+  </si>
+  <si>
+    <t>我的</t>
+  </si>
+  <si>
+    <t>个人资料</t>
+  </si>
+  <si>
+    <t>微信绑定</t>
+  </si>
+  <si>
+    <t>我的积分</t>
+  </si>
+  <si>
+    <t>差引入积分规则</t>
+  </si>
+  <si>
+    <t>我的订单</t>
+  </si>
+  <si>
+    <t>接口的调试待做</t>
+  </si>
+  <si>
+    <t>我的钱包</t>
+  </si>
+  <si>
+    <t>有一部分设计到支付后的待做</t>
+  </si>
+  <si>
+    <t>我的关注</t>
+  </si>
+  <si>
+    <t>我的动态</t>
+  </si>
+  <si>
+    <t>我的返佣</t>
+  </si>
+  <si>
     <t>设计到订单的还做不了</t>
   </si>
   <si>
-    <t>陈衍冰</t>
-  </si>
-  <si>
-    <t>教练申请</t>
-  </si>
-  <si>
-    <t>话题</t>
-  </si>
-  <si>
-    <t>搜索</t>
-  </si>
-  <si>
-    <t>俱乐部</t>
-  </si>
-  <si>
-    <t>店铺</t>
-  </si>
-  <si>
-    <t>发布</t>
-  </si>
-  <si>
-    <t>发布动态</t>
-  </si>
-  <si>
-    <t>日志-水肺潜水</t>
-  </si>
-  <si>
-    <t>商场</t>
-  </si>
-  <si>
-    <t>商品列表</t>
-  </si>
-  <si>
-    <t>商品详情</t>
-  </si>
-  <si>
-    <t>购物车</t>
-  </si>
-  <si>
-    <t>船宿预约</t>
-  </si>
-  <si>
-    <t>杨安生</t>
-  </si>
-  <si>
-    <t>课程购买</t>
-  </si>
-  <si>
-    <t>我的</t>
-  </si>
-  <si>
-    <t>个人资料</t>
-  </si>
-  <si>
-    <t>微信绑定</t>
-  </si>
-  <si>
-    <t>我的积分</t>
-  </si>
-  <si>
-    <t>我的订单</t>
-  </si>
-  <si>
-    <t>接口的调试待做</t>
-  </si>
-  <si>
-    <t>我的钱包</t>
-  </si>
-  <si>
-    <t>有一部分设计到支付后的待做</t>
-  </si>
-  <si>
-    <t>我的关注</t>
-  </si>
-  <si>
-    <t>我的动态</t>
-  </si>
-  <si>
-    <t>我的返佣</t>
-  </si>
-  <si>
     <t>地址管理</t>
   </si>
   <si>
@@ -213,9 +219,6 @@
   </si>
   <si>
     <t>话题类别</t>
-  </si>
-  <si>
-    <t>接口开发完毕剩页面</t>
   </si>
   <si>
     <t>话题内容</t>
@@ -298,10 +301,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -315,7 +318,112 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,56 +443,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -393,63 +451,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,7 +475,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,19 +511,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,19 +631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,7 +643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,115 +655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,35 +666,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -710,17 +684,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,153 +731,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1247,14 +1250,14 @@
   <sheetPr/>
   <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="27.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="29.6287878787879" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6287878787879" customWidth="1"/>
     <col min="4" max="4" width="47.5" customWidth="1"/>
     <col min="5" max="5" width="20" style="1"/>
   </cols>
@@ -1532,10 +1535,10 @@
         <v>34</v>
       </c>
       <c r="C19" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>15</v>
@@ -1544,13 +1547,13 @@
     <row r="20" customHeight="1" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2">
         <v>0.99</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>29</v>
@@ -1559,13 +1562,13 @@
     <row r="21" customHeight="1" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2">
         <v>0.6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>29</v>
@@ -1574,7 +1577,7 @@
     <row r="22" customHeight="1" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -1589,7 +1592,7 @@
     <row r="23" customHeight="1" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -1619,13 +1622,13 @@
     <row r="25" customHeight="1" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>15</v>
@@ -1634,7 +1637,7 @@
     <row r="26" customHeight="1" spans="1:5">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -1647,13 +1650,13 @@
     <row r="27" customHeight="1" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2">
         <v>0.9</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>29</v>
@@ -1662,7 +1665,7 @@
     <row r="28" customHeight="1" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2156,21 +2159,21 @@
   <sheetPr/>
   <dimension ref="A1:E177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:E29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="29.6287878787879" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6287878787879" customWidth="1"/>
     <col min="4" max="4" width="47.5" customWidth="1"/>
     <col min="5" max="5" width="20" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.75" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2194,10 +2197,10 @@
     </row>
     <row r="3" ht="27.95" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -2209,10 +2212,10 @@
     </row>
     <row r="4" ht="27.95" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -2225,20 +2228,20 @@
     <row r="5" ht="27.95" customHeight="1" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" ht="27.95" customHeight="1" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -2250,10 +2253,10 @@
     </row>
     <row r="7" ht="27.95" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -2266,7 +2269,7 @@
     <row r="8" ht="27.95" customHeight="1" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -2276,7 +2279,7 @@
     <row r="9" ht="27.95" customHeight="1" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -2286,7 +2289,7 @@
     <row r="10" ht="27.95" customHeight="1" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -2295,10 +2298,10 @@
     </row>
     <row r="11" ht="27.95" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -2311,7 +2314,7 @@
     <row r="12" ht="27.95" customHeight="1" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -2320,10 +2323,10 @@
     </row>
     <row r="13" ht="27.95" customHeight="1" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -2336,7 +2339,7 @@
     <row r="14" ht="27.95" customHeight="1" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -2346,7 +2349,7 @@
     <row r="15" ht="27.95" customHeight="1" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -2355,39 +2358,39 @@
     </row>
     <row r="16" ht="27.95" customHeight="1" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="27.95" customHeight="1" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="27.95" customHeight="1" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -2400,7 +2403,7 @@
     <row r="19" ht="27.95" customHeight="1" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -2410,7 +2413,7 @@
     <row r="20" ht="27.95" customHeight="1" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -2420,7 +2423,7 @@
     <row r="21" ht="27.95" customHeight="1" spans="1:4">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -2429,10 +2432,10 @@
     </row>
     <row r="22" ht="27.95" customHeight="1" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -2445,7 +2448,7 @@
     <row r="23" ht="27.95" customHeight="1" spans="1:4">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -2455,7 +2458,7 @@
     <row r="24" ht="27.95" customHeight="1" spans="1:4">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -2464,67 +2467,77 @@
     </row>
     <row r="25" ht="27.95" customHeight="1" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E25" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" ht="27.95" customHeight="1" spans="1:4">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" ht="27.95" customHeight="1" spans="1:4">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" ht="27.95" customHeight="1" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" ht="27.95" customHeight="1" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" ht="27.95" customHeight="1" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -3038,17 +3051,17 @@
       <selection activeCell="A26" sqref="A26:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="29.6287878787879" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6287878787879" customWidth="1"/>
     <col min="4" max="4" width="47.5" customWidth="1"/>
     <col min="5" max="5" width="20" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="30.75" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3451,17 +3464,17 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="29.6287878787879" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6287878787879" customWidth="1"/>
     <col min="4" max="4" width="47.5" customWidth="1"/>
     <col min="5" max="5" width="20" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="30.75" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3872,17 +3885,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="29.6287878787879" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6287878787879" customWidth="1"/>
     <col min="4" max="4" width="47.5" customWidth="1"/>
     <col min="5" max="5" width="20" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="30.75" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3890,30 +3903,30 @@
     </row>
     <row r="2" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>

--- a/.doc/工作进度.xlsx
+++ b/.doc/工作进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="app接口" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
     <t>陈衍兵</t>
   </si>
   <si>
-    <t>供应商管理</t>
+    <t>供应商管理(没有了)</t>
   </si>
   <si>
     <t>商品管理</t>
@@ -302,20 +302,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -330,92 +323,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -427,25 +338,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,7 +361,106 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,25 +475,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,37 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,13 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,7 +565,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,31 +607,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,43 +643,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,6 +666,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -701,218 +766,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1256,8 +1256,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="27.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="29.6287878787879" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6287878787879" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="47.5" customWidth="1"/>
     <col min="5" max="5" width="20" style="1"/>
   </cols>
@@ -2159,14 +2159,14 @@
   <sheetPr/>
   <dimension ref="A1:E177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="29.6287878787879" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6287878787879" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="47.5" customWidth="1"/>
     <col min="5" max="5" width="20" style="1"/>
   </cols>
@@ -2203,7 +2203,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
@@ -2218,7 +2218,7 @@
         <v>51</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -3051,10 +3051,10 @@
       <selection activeCell="A26" sqref="A26:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="29.6287878787879" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6287878787879" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="47.5" customWidth="1"/>
     <col min="5" max="5" width="20" style="1"/>
   </cols>
@@ -3464,10 +3464,10 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="29.6287878787879" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6287878787879" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="47.5" customWidth="1"/>
     <col min="5" max="5" width="20" style="1"/>
   </cols>
@@ -3885,10 +3885,10 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="29.6287878787879" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6287878787879" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="47.5" customWidth="1"/>
     <col min="5" max="5" width="20" style="1"/>
   </cols>
